--- a/analysis/Flow Meter Calibration/FlowTest3.xlsx
+++ b/analysis/Flow Meter Calibration/FlowTest3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam-n-Abbs\Documents\GitHub\liquid-engine-test-stand\analysis\Flow Meter Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jntil\Documents\Git_Repos\liquid-engine-test-stand\analysis\Flow Meter Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E725F8A-65E2-46A8-B4F3-796868DDDBCA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF907C8-6E0F-4514-9F41-2AD395500FA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="9345"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Data" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,6 @@
     <sheet name="Interactive Bar Graph" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="92512"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -187,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -428,6 +420,3962 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Simple Data'!$B$58:$B$350</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="293"/>
+                <c:pt idx="0">
+                  <c:v>5.6171879999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.71875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8242190000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9140629999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0195309999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1171879999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.2070309999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3203129999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4140629999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.5234379999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6171879999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.7109379999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.8203129999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9140629999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0195309999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.1210940000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.2304690000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.3125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.421875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.515625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.609375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.71875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.8164059999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.9101559999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.0195310000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.1132810000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.2226560000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.3203130000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.4179689999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.5117189999999994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.6210939999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.7226560000000006</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.8164060000000006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.9140630000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.0234380000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.1171880000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2148439999999994</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.3085939999999994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.421875</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.515625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.71875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.8164060000000006</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.9257810000000006</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.01953</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.11328</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.222659999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.316409999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.42578</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.51953</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.61328</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.722659999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.82422</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.91797</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.01172</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11.121090000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11.214840000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11.32422</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11.41797</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11.51172</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.621090000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.714840000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11.816409999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11.910159999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.01563</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12.10938</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12.21875</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.316409999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12.414059999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12.51953</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12.617190000000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12.722659999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12.82422</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>12.92188</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>13.01563</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>13.10938</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>13.21875</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>13.41797</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>13.527340000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>13.621090000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13.714840000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>13.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>13.914059999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>14.023440000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>14.117190000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>14.226559999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14.32422</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>14.41797</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14.51172</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>14.621090000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14.714840000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>14.816409999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14.92578</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>15.01953</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>15.11328</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>15.222659999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>15.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>15.414059999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>15.523440000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>15.617190000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>15.710940000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>15.82422</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>15.91797</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>16.007809999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>16.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>16.222660000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>16.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>16.429690000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>16.51953</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>16.617190000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>16.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>16.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>16.92578</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>17.015630000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>17.11328</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>17.21875</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>17.316410000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>17.421880000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>17.515630000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>17.609380000000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>17.71875</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>17.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>17.910160000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>18.01953</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>18.11328</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>18.222660000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>18.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>18.414059999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>18.507809999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>18.617190000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>18.710940000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>18.82422</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>18.91797</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>19.01172</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>19.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>19.214839999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>19.32422</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>19.41797</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>19.51172</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>19.621089999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>19.71875</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>19.82422</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>19.914059999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>20.023440000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>20.117190000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>20.210940000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>20.32422</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>20.41797</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>20.527339999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>20.621089999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>20.714839999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>20.8125</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>20.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>21.015630000000002</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>21.11328</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>21.21875</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>21.316410000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>21.410160000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>21.51953</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>21.61328</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>21.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>21.82422</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>21.91797</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>22.01172</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>22.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>22.214839999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>22.32422</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>22.41797</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>22.507809999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>22.617190000000001</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>22.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>22.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>22.91797</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>23.01172</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>23.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>23.21875</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>23.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>23.41797</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>23.51172</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>23.621089999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>23.714839999999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>23.8125</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>23.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>24.015630000000002</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>24.11328</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>24.222660000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>24.316410000000001</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>24.410160000000001</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>24.51953</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>24.61328</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>24.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>24.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>24.910160000000001</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>25.01953</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>25.11328</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>25.222660000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>25.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>25.414059999999999</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>25.51172</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>25.621089999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>25.714839999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>25.808589999999999</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>25.910160000000001</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>26.027339999999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>26.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>26.210940000000001</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>26.32422</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>26.414059999999999</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>26.523440000000001</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>26.617190000000001</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>26.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>26.82422</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>26.91797</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>27.01172</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>27.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>27.214839999999999</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>27.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>27.414059999999999</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>27.51953</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>27.617190000000001</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>27.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>27.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>27.910160000000001</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>28.01953</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>28.11328</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>28.222660000000001</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>28.316410000000001</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>28.410160000000001</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>28.51953</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>28.61328</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>28.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>28.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>28.914059999999999</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>29.023440000000001</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>29.117190000000001</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>29.210940000000001</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>29.32422</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>29.41797</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>29.51172</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>29.621089999999999</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>29.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>29.82422</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>29.91797</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>30.01172</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>30.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>30.222660000000001</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>30.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>30.414059999999999</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>30.523440000000001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>30.617190000000001</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>30.726559999999999</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>30.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>30.914059999999999</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>31.023440000000001</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>31.117190000000001</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>31.210940000000001</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>31.316410000000001</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>31.421880000000002</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>31.515630000000002</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>31.625</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>31.71875</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>31.82422</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>31.91797</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>32.007809999999999</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>32.121090000000002</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>32.214840000000002</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>32.3125</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>32.421880000000002</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>32.515630000000002</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>32.625</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>32.714840000000002</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>32.816409999999998</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>32.910159999999998</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>33.019530000000003</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>33.113280000000003</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>33.222659999999998</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>33.316409999999998</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>33.410159999999998</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>33.515630000000002</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>33.613280000000003</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>33.722659999999998</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>33.824219999999997</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>33.910159999999998</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>34.019530000000003</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>34.113280000000003</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>34.222659999999998</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>34.316409999999998</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>34.410159999999998</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>34.519530000000003</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>34.613280000000003</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>34.722659999999998</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>34.820309999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simple Data'!$C$58:$C$350</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="293"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6538-41F1-90FD-727F4CE52CE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="472527944"/>
+        <c:axId val="472528600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="472527944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472528600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="472528600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472527944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7751968503937009E-2"/>
+                  <c:y val="-0.23617964421114027"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Simple Data'!$B$63:$B$322</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="260"/>
+                <c:pt idx="0">
+                  <c:v>6.1171879999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2070309999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3203129999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4140629999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5234379999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6171879999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7109379999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8203129999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9140629999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0195309999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1210940000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.2304690000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.3125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.421875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.515625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.609375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.71875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.8164059999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.9101559999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.0195310000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.1132810000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.2226560000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.3203130000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.4179689999999994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.5117189999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.6210939999999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.7226560000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.8164060000000006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.9140630000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.0234380000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.1171880000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.2148439999999994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.3085939999999994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.421875</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.515625</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.71875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.8164060000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.9257810000000006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.01953</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.11328</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.222659999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.316409999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.42578</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.51953</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.61328</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.722659999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.82422</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.91797</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.01172</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.121090000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.214840000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11.32422</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.41797</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.51172</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11.621090000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11.714840000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11.816409999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11.910159999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.01563</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12.10938</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12.21875</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12.316409999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12.414059999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.51953</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12.617190000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12.722659999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.82422</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12.92188</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13.01563</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13.10938</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13.21875</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13.41797</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>13.527340000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>13.621090000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>13.714840000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>13.914059999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14.023440000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>14.117190000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>14.226559999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>14.32422</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>14.41797</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>14.51172</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>14.621090000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>14.714840000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14.816409999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>14.92578</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>15.01953</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>15.11328</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>15.222659999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>15.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>15.414059999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>15.523440000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>15.617190000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>15.710940000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>15.82422</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>15.91797</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>16.007809999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>16.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>16.222660000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>16.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>16.429690000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>16.51953</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>16.617190000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>16.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>16.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>16.92578</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>17.015630000000002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>17.11328</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>17.21875</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>17.316410000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>17.421880000000002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>17.515630000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>17.609380000000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>17.71875</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>17.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>17.910160000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>18.01953</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>18.11328</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>18.222660000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>18.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>18.414059999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>18.507809999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>18.617190000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>18.710940000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>18.82422</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>18.91797</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>19.01172</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>19.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>19.214839999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>19.32422</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>19.41797</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>19.51172</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>19.621089999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>19.71875</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>19.82422</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>19.914059999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>20.023440000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>20.117190000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>20.210940000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>20.32422</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>20.41797</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>20.527339999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>20.621089999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>20.714839999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>20.8125</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>20.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>21.015630000000002</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>21.11328</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>21.21875</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>21.316410000000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>21.410160000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>21.51953</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>21.61328</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>21.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>21.82422</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>21.91797</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>22.01172</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>22.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>22.214839999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>22.32422</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>22.41797</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>22.507809999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>22.617190000000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>22.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>22.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>22.91797</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>23.01172</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>23.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>23.21875</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>23.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>23.41797</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>23.51172</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>23.621089999999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>23.714839999999999</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>23.8125</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>23.921880000000002</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>24.015630000000002</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>24.11328</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>24.222660000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>24.316410000000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>24.410160000000001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>24.51953</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>24.61328</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>24.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>24.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>24.910160000000001</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>25.01953</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>25.11328</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>25.222660000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>25.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>25.414059999999999</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>25.51172</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>25.621089999999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>25.714839999999999</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>25.808589999999999</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>25.910160000000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>26.027339999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>26.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>26.210940000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>26.32422</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>26.414059999999999</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>26.523440000000001</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>26.617190000000001</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>26.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>26.82422</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>26.91797</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>27.01172</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>27.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>27.214839999999999</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>27.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>27.414059999999999</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>27.51953</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>27.617190000000001</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>27.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>27.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>27.910160000000001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>28.01953</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>28.11328</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>28.222660000000001</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>28.316410000000001</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>28.410160000000001</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>28.51953</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>28.61328</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>28.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>28.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>28.914059999999999</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>29.023440000000001</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>29.117190000000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>29.210940000000001</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>29.32422</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>29.41797</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>29.51172</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>29.621089999999999</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>29.722660000000001</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>29.82422</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>29.91797</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>30.01172</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>30.121089999999999</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>30.222660000000001</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>30.320309999999999</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>30.414059999999999</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>30.523440000000001</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>30.617190000000001</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>30.726559999999999</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>30.820309999999999</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>30.914059999999999</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>31.023440000000001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>31.117190000000001</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>31.210940000000001</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>31.316410000000001</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>31.421880000000002</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>31.515630000000002</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>31.625</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>31.71875</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>31.82422</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>31.91797</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>32.007809999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simple Data'!$C$63:$C$322</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="260"/>
+                <c:pt idx="0">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6532-41F4-8087-1E6B70AE5007}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="494980528"/>
+        <c:axId val="494973968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="494980528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494973968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="494973968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494980528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -709,7 +4657,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1042,7 +4990,1196 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15412A10-79AF-41C2-A0F4-E8A0E1DA4CA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8DDB4CF-D6D1-47F3-94F9-14DB6D7EFBBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1085,7 +6222,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1509,12 +6646,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11464,11 +16601,12 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -11518,7 +16656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
